--- a/Kaggle Learn.xlsx
+++ b/Kaggle Learn.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Python</t>
   </si>
@@ -60,16 +60,22 @@
     <t>Game AI</t>
   </si>
   <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
     <t>Kaggle Topics</t>
   </si>
   <si>
     <t>S.No</t>
+  </si>
+  <si>
+    <t>Exp Start Date</t>
+  </si>
+  <si>
+    <t>Exp End Date</t>
+  </si>
+  <si>
+    <t>Act Start Date</t>
+  </si>
+  <si>
+    <t>Act End Date</t>
   </si>
 </sst>
 </file>
@@ -77,7 +83,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -132,7 +138,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -436,35 +442,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -474,99 +488,159 @@
       <c r="C2" s="4">
         <v>45651</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="4">
+        <v>45651</v>
+      </c>
+      <c r="E2" s="4">
+        <v>45651</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="4">
+        <v>45652</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45652</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="4">
+        <v>45652</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45652</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="4">
+        <v>45653</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45653</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="4">
+        <v>45653</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45653</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="4">
+        <v>45653</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45653</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="4">
+        <v>45654</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45654</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="4">
+        <v>45654</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45654</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="4">
+        <v>45657</v>
+      </c>
+      <c r="D10" s="4">
+        <v>45657</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="4">
+        <v>45657</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45657</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -575,18 +649,26 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="4">
+        <v>45657</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45657</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -595,8 +677,10 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -605,6 +689,8 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Kaggle Learn.xlsx
+++ b/Kaggle Learn.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,7 +494,9 @@
       <c r="E2" s="4">
         <v>45651</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4">
+        <v>45652</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -509,7 +511,9 @@
       <c r="D3" s="4">
         <v>45652</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4">
+        <v>45652</v>
+      </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
